--- a/doc/ModBus参数表—2016.8.9.xlsx
+++ b/doc/ModBus参数表—2016.8.9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="3" r:id="rId1"/>
@@ -571,14 +571,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,20 +597,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -639,7 +625,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,12 +641,105 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,119 +754,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -791,22 +770,9 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,37 +841,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,145 +961,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,17 +1181,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,6 +1216,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,24 +1270,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1318,177 +1278,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1547,9 +1483,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,7 +1525,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,7 +1573,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,15 +1606,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1700,10 +1630,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1739,10 +1669,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1751,19 +1678,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1835,7 +1756,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2147,270 +2068,270 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" s="14" customFormat="1" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23">
         <v>40003</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="29"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="29"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="29"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="29"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A13" s="29"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" ht="57" spans="1:13">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32">
         <v>40003</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" ht="28.5" spans="1:13">
       <c r="A15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>40004</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>0</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" ht="16.5" spans="1:7">
-      <c r="A16" s="23"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="23"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2418,20 +2339,20 @@
       <c r="A18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="39">
         <v>40009</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>1</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2439,20 +2360,20 @@
       <c r="A19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="39">
         <v>40010</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <v>1</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2460,20 +2381,20 @@
       <c r="A20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>6000</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2481,20 +2402,20 @@
       <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>0</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2502,20 +2423,20 @@
       <c r="A22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="39">
         <v>40015</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="44" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2523,20 +2444,20 @@
       <c r="A23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>40016</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <v>20</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="49" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2544,20 +2465,20 @@
       <c r="A24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="45">
         <v>40017</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="48">
         <v>5</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2565,20 +2486,20 @@
       <c r="A25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <v>40018</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="49" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2586,20 +2507,20 @@
       <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="45">
         <v>40019</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="49" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2607,126 +2528,126 @@
       <c r="A27" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <v>40020</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="48">
         <v>3</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:14">
-      <c r="A28" s="23"/>
-      <c r="B28" s="52">
+      <c r="A28" s="22"/>
+      <c r="B28" s="51">
         <v>40021</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="54">
         <v>0</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="77">
+      <c r="I28" s="75">
         <v>0</v>
       </c>
-      <c r="J28" s="77">
+      <c r="J28" s="75">
         <v>1</v>
       </c>
-      <c r="K28" s="77">
+      <c r="K28" s="75">
         <v>2</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="75">
         <v>3</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="75">
         <v>4</v>
       </c>
-      <c r="N28" s="77">
+      <c r="N28" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="29" ht="42.75" spans="1:14">
-      <c r="A29" s="23"/>
-      <c r="B29" s="52">
+      <c r="A29" s="22"/>
+      <c r="B29" s="51">
         <v>40022</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="54">
         <v>0</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="89" t="s">
+      <c r="I29" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="74"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
     </row>
     <row r="30" ht="16.5" spans="1:14">
       <c r="A30" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="54">
         <v>0</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="77">
+      <c r="I30" s="75">
         <v>0</v>
       </c>
-      <c r="J30" s="77" t="s">
+      <c r="J30" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="77" t="s">
+      <c r="K30" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="L30" s="77" t="s">
+      <c r="L30" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="M30" s="77" t="s">
+      <c r="M30" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="75" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2734,38 +2655,38 @@
       <c r="A31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="54">
         <v>0.01</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="77">
+      <c r="I31" s="75">
         <v>0</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="75">
         <v>1000000</v>
       </c>
-      <c r="K31" s="77">
+      <c r="K31" s="75">
         <v>1000000</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="75">
         <v>1000000</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="75">
         <v>1000000</v>
       </c>
-      <c r="N31" s="77">
+      <c r="N31" s="75">
         <v>1000000</v>
       </c>
     </row>
@@ -2773,236 +2694,236 @@
       <c r="A32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="59">
         <v>1000</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="90" t="s">
+      <c r="I32" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="62">
         <v>200000</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="61" t="s">
+      <c r="G33" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="63">
         <v>40031</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="66">
         <v>32</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="67" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="23"/>
-      <c r="B35" s="65">
+      <c r="A35" s="22"/>
+      <c r="B35" s="63">
         <v>40032</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="66" t="s">
+      <c r="E35" s="68"/>
+      <c r="F35" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="34" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="23"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="71" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="66" t="s">
+      <c r="E36" s="68"/>
+      <c r="F36" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="72"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="23"/>
-      <c r="B37" s="65" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="71" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="66" t="s">
+      <c r="E37" s="68"/>
+      <c r="F37" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="17"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="77"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="75"/>
     </row>
     <row r="39" ht="28.5" spans="1:7">
-      <c r="A39" s="23"/>
-      <c r="B39" s="78">
+      <c r="A39" s="22"/>
+      <c r="B39" s="76">
         <v>40097</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80" t="s">
+      <c r="C39" s="77"/>
+      <c r="D39" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="79">
         <v>0</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="82" t="s">
+      <c r="G39" s="80" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" ht="28.5" spans="1:8">
-      <c r="A40" s="23"/>
-      <c r="B40" s="78">
+      <c r="A40" s="22"/>
+      <c r="B40" s="76">
         <v>40098</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80" t="s">
+      <c r="C40" s="77"/>
+      <c r="D40" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="79" t="s">
+      <c r="E40" s="81"/>
+      <c r="F40" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="82" t="s">
+      <c r="G40" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="82" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="23"/>
-      <c r="B41" s="78" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="83"/>
-      <c r="F41" s="79" t="s">
+      <c r="E41" s="81"/>
+      <c r="F41" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="82" t="s">
+      <c r="G41" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="85"/>
+      <c r="H41" s="82"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="17"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="77"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="75"/>
     </row>
     <row r="43" ht="64.5" customHeight="1" spans="1:7">
       <c r="A43" s="17"/>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="87"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="40">
